--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159979</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发粤港澳大湾区创新100ETF</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>159979</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>广发粤港澳大湾区创新100ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,172 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -838,4 +839,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -933,4 +934,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -942,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,17 +954,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -973,14 +994,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -989,14 +1032,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1005,14 +1070,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1021,13 +1108,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1265,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,17 +1277,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1296,14 +1317,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1312,14 +1355,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1328,14 +1393,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1344,14 +1431,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1360,13 +1469,241 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1586,7 +1587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,17 +1598,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1617,14 +1638,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1633,14 +1676,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.71</v>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1649,14 +1714,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1665,14 +1752,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1681,14 +1790,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1697,13 +1828,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,326 +1139,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2433</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1624</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1260,32 +1203,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.22</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2827</t>
+          <t>0.2433</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1298,36 +1241,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011834</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>42.24</t>
+          <t>60.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3345</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1336,36 +1279,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1384,26 +1327,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>42.24</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1412,36 +1355,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1450,36 +1393,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>013464</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>大成致远优势一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>60.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1488,36 +1431,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1526,6 +1467,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1619,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1787,7 +2050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1919,7 +2182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00001-长和.xlsx
+++ b/数据整理/stocks/港股/00001-长和.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.71</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +794,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.75</t>
+          <t>64.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1913</t>
+          <t>0.1941</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +832,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60.88</t>
+          <t>66.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1303</t>
+          <t>0.1304</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +870,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>66.75</t>
+          <t>64.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +908,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -835,26 +946,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60.88</t>
+          <t>66.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +974,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1139,326 +1496,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2433</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1624</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1523,32 +1560,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.22</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2827</t>
+          <t>0.2433</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1561,36 +1598,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011834</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>42.24</t>
+          <t>60.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3345</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1599,36 +1636,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1647,26 +1684,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>42.24</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1675,36 +1712,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1713,36 +1750,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>013464</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>大成致远优势一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>60.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1751,36 +1788,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1789,6 +1824,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1882,7 +2239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2050,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2180,98 +2537,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>